--- a/Datos/Database by set/Set with text box/Xlsx sets/Arena League 1999 (PAL99).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Arena League 1999 (PAL99).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,273 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Basic Land — Forest</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>({T}: Add {G}.)</t>
+          <t>('Karn, Silver Golem', ['{5}', 'Legendary Artifact Creature — Golem', 'Whenever Karn, Silver Golem blocks or becomes blocked, it gets -4/+4 until end of turn.', '{1}: Target noncreature artifact becomes an artifact creature with power and toughness each equal to its converted mana cost until end of turn.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Island</t>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Basic Land — Island</t>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>({T}: Add {U}.)</t>
+          <t>('Pouncing Jaguar', ['{G}', 'Creature — Cat', 'Echo {G} (At the beginning of your upkeep, if this came under your control since the beginning of your last upkeep, sacrifice it unless you pay its echo cost.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Island</t>
+          <t>('Rewind', ['{2}{U}{U}', 'Instant', 'Counter target spell. Untap up to four lands.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Basic Land — Island</t>
+          <t>('Skittering Skirge', ['{B}{B}', 'Creature — Imp', 'Flying', 'When you cast a creature spell, sacrifice Skittering Skirge.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>({T}: Add {U}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Karn, Silver Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{5}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Legendary Artifact Creature — Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Whenever Karn, Silver Golem blocks or becomes blocked, it gets -4/+4 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{1}: Target noncreature artifact becomes an artifact creature with power and toughness each equal to its converted mana cost until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Basic Land — Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>({T}: Add {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Basic Land — Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>({T}: Add {W}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Pouncing Jaguar</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Creature — Cat</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Echo {G} (At the beginning of your upkeep, if this came under your control since the beginning of your last upkeep, sacrifice it unless you pay its echo cost.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Rewind</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{2}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Counter target spell. Untap up to four lands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Skittering Skirge</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Creature — Imp</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>When you cast a creature spell, sacrifice Skittering Skirge.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>3/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Basic Land — Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>({T}: Add {B}.)</t>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
